--- a/df_parte2_folds.xlsx
+++ b/df_parte2_folds.xlsx
@@ -443,6 +443,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -1664,6 +1669,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -6365,6 +6375,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -11066,6 +11081,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -12287,6 +12307,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -16988,6 +17013,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -18209,6 +18239,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -22910,6 +22945,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -24131,6 +24171,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
@@ -28832,6 +28877,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CDR</t>
